--- a/Equipamiento y Moviliario/Relacion Equipamiento y Mobiloiario SANTA ROSA - 2022 AMP 08.xlsx
+++ b/Equipamiento y Moviliario/Relacion Equipamiento y Mobiloiario SANTA ROSA - 2022 AMP 08.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\Instalaciones_Especiales\Equipamiento y Moviliario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C96BD8-2D65-4353-B2EC-950C857E3932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909CB68C-1C70-41EC-B275-8C759D549FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="605" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relacion de EM" sheetId="1" r:id="rId1"/>
@@ -21,15 +21,18 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="48">
   <si>
     <t>Area</t>
   </si>
@@ -172,13 +175,22 @@
   </si>
   <si>
     <t>Total general</t>
+  </si>
+  <si>
+    <t>CUADRO N°05</t>
+  </si>
+  <si>
+    <t>EQUIPAMIENTO CENTRO DE DATOS</t>
+  </si>
+  <si>
+    <t>SISTEMA DE AIRE ACONDICIONADO DE PRESICION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +202,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -221,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -242,30 +260,11 @@
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
@@ -300,8 +299,8 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="4" name="Entrada de lápiz 3">
@@ -320,7 +319,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="4" name="Entrada de lápiz 3">
@@ -365,8 +364,8 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="8" name="Entrada de lápiz 7">
@@ -385,7 +384,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="8" name="Entrada de lápiz 7">
@@ -430,8 +429,8 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="11" name="Entrada de lápiz 10">
@@ -450,7 +449,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="11" name="Entrada de lápiz 10">
@@ -938,7 +937,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="TablaDinámica6" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="TablaDinámica6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
@@ -1048,7 +1047,7 @@
     <dataField name="Suma de TOTAL" fld="10" baseField="0" baseItem="0" numFmtId="4"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="7">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
@@ -1058,7 +1057,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -1344,8 +1343,8 @@
   </sheetPr>
   <dimension ref="A3:O19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -1356,7 +1355,7 @@
     <col min="4" max="4" width="14.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="39.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="41.85546875" customWidth="1"/>
+    <col min="7" max="7" width="46.85546875" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" style="1" customWidth="1"/>
@@ -1483,7 +1482,7 @@
         <v>38000</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" ref="K5:K14" si="0">I5*J5</f>
+        <f t="shared" ref="K5:K15" si="0">I5*J5</f>
         <v>38000</v>
       </c>
       <c r="L5" s="4" t="s">
@@ -1843,11 +1842,43 @@
       </c>
     </row>
     <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>43000</v>
+      </c>
       <c r="K15" s="1">
-        <f>SUM(K4:K14)</f>
-        <v>333660</v>
-      </c>
-      <c r="L15"/>
+        <f t="shared" si="0"/>
+        <v>43000</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="K16"/>
@@ -1873,6 +1904,7 @@
     <sortCondition ref="E4:E10"/>
     <sortCondition ref="F4:F10"/>
   </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="10" orientation="landscape"/>
   <drawing r:id="rId1"/>
@@ -1883,8 +1915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -1914,7 +1946,7 @@
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4">
         <v>78</v>
       </c>
       <c r="C4" s="1">
@@ -1928,7 +1960,7 @@
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" s="1">
@@ -1942,7 +1974,7 @@
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" s="1">
@@ -1956,7 +1988,7 @@
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" s="1">
@@ -1970,7 +2002,7 @@
       <c r="A8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8">
         <v>30</v>
       </c>
       <c r="C8" s="1">
@@ -1984,7 +2016,7 @@
       <c r="A9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9">
         <v>30</v>
       </c>
       <c r="C9" s="1">
@@ -1998,7 +2030,7 @@
       <c r="A10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10">
         <v>12</v>
       </c>
       <c r="C10" s="1">
@@ -2012,7 +2044,7 @@
       <c r="A11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" s="1">
@@ -2026,7 +2058,7 @@
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" s="1">
@@ -2040,7 +2072,7 @@
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13">
         <v>48</v>
       </c>
       <c r="C13" s="1">
@@ -2054,7 +2086,7 @@
       <c r="A14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" s="1">
@@ -2068,7 +2100,7 @@
       <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" s="1">
@@ -2082,7 +2114,7 @@
       <c r="A16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16">
         <v>46</v>
       </c>
       <c r="C16" s="1">
@@ -2096,7 +2128,7 @@
       <c r="A17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17">
         <v>126</v>
       </c>
       <c r="C17" s="1">

--- a/Equipamiento y Moviliario/Relacion Equipamiento y Mobiloiario SANTA ROSA - 2022 AMP 08.xlsx
+++ b/Equipamiento y Moviliario/Relacion Equipamiento y Mobiloiario SANTA ROSA - 2022 AMP 08.xlsx
@@ -1,43 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\Instalaciones_Especiales\Equipamiento y Moviliario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\Instalaciones_Especiales\Equipamiento y Moviliario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C96BD8-2D65-4353-B2EC-950C857E3932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA90A7A2-DDFC-4163-953A-3F1251B2002F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="605" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relacion de EM" sheetId="1" r:id="rId1"/>
     <sheet name="Presupuesto" sheetId="22" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="23" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Relacion de EM'!$A$3:$O$14</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="179021"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId3"/>
+    <pivotCache cacheId="4" r:id="rId4"/>
   </pivotCaches>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="47">
   <si>
     <t>Area</t>
   </si>
@@ -172,6 +163,12 @@
   </si>
   <si>
     <t>Total general</t>
+  </si>
+  <si>
+    <t>CUADRO N°05</t>
+  </si>
+  <si>
+    <t>SISTEMA DE AIRE ACONDICIONADO DE PRECISION</t>
   </si>
 </sst>
 </file>
@@ -247,19 +244,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
@@ -300,8 +285,8 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="4" name="Entrada de lápiz 3">
@@ -320,7 +305,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="4" name="Entrada de lápiz 3">
@@ -365,8 +350,8 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="8" name="Entrada de lápiz 7">
@@ -385,7 +370,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="8" name="Entrada de lápiz 7">
@@ -430,8 +415,8 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="11" name="Entrada de lápiz 10">
@@ -450,7 +435,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="11" name="Entrada de lápiz 10">
@@ -567,7 +552,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="pc" refreshedDate="44863.525114467593" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="17" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="MEL" refreshedDate="44980.430479166665" createdVersion="8" refreshedVersion="6" minRefreshableVersion="3" recordCount="17" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A3:O44" sheet="Relacion de EM"/>
   </cacheSource>
@@ -595,7 +580,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
     </cacheField>
     <cacheField name="DESCRIPCION" numFmtId="0">
-      <sharedItems containsBlank="1" count="12">
+      <sharedItems containsBlank="1" count="13">
         <s v="EQUIPAMIENTO PARA AMBIENTES MULTIUSO"/>
         <s v="EQUIPAMIENTO PARA SOPORTE DE IMAGEN"/>
         <s v="COCINA INDUSTRIAL DE ACERO INOX"/>
@@ -607,6 +592,7 @@
         <s v="KIT DE ROBÓTICA EDUCATIVA AVANZADA"/>
         <s v="MULTÍMETRO DIGITAL CON PUERTO USB"/>
         <s v="SISTEMA DE SWITCH DE AUDIO Y VIDEO"/>
+        <s v="SISTEMA DE AIRE ACONDICIONADO DE PRECISION"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -617,10 +603,10 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="46"/>
     </cacheField>
     <cacheField name="PRECIO" numFmtId="4">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="360" maxValue="42000"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="360" maxValue="42500"/>
     </cacheField>
     <cacheField name="TOTAL" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="5000" maxValue="333660"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="5000" maxValue="135000"/>
     </cacheField>
     <cacheField name="ESTADO" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -833,18 +819,18 @@
     <m/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="Laboratorio"/>
+    <s v="Uso General"/>
+    <x v="0"/>
+    <s v="CUADRO N°05"/>
+    <s v="EQUIPAMIENTO PARA LABORATORIO"/>
+    <n v="4"/>
     <x v="11"/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="333660"/>
-    <m/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="42500"/>
+    <n v="42500"/>
+    <s v="EETT"/>
     <m/>
     <m/>
     <m/>
@@ -856,7 +842,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="11"/>
+    <x v="12"/>
     <m/>
     <m/>
     <m/>
@@ -873,7 +859,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="11"/>
+    <x v="12"/>
     <m/>
     <m/>
     <m/>
@@ -890,7 +876,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="11"/>
+    <x v="12"/>
     <m/>
     <m/>
     <m/>
@@ -907,7 +893,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="11"/>
+    <x v="12"/>
     <m/>
     <m/>
     <m/>
@@ -924,7 +910,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="11"/>
+    <x v="12"/>
     <m/>
     <m/>
     <m/>
@@ -938,8 +924,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="TablaDinámica6" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:D17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="TablaDinámica6" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -955,7 +941,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="13">
+      <items count="14">
         <item x="2"/>
         <item x="0"/>
         <item x="1"/>
@@ -967,6 +953,7 @@
         <item x="6"/>
         <item x="10"/>
         <item x="3"/>
+        <item x="12"/>
         <item x="11"/>
         <item t="default"/>
       </items>
@@ -984,7 +971,7 @@
     <field x="2"/>
     <field x="6"/>
   </rowFields>
-  <rowItems count="14">
+  <rowItems count="15">
     <i>
       <x/>
     </i>
@@ -1011,6 +998,9 @@
     </i>
     <i r="1">
       <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
     </i>
     <i>
       <x v="1"/>
@@ -1048,7 +1038,7 @@
     <dataField name="Suma de TOTAL" fld="10" baseField="0" baseItem="0" numFmtId="4"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="7">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
@@ -1058,7 +1048,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -1344,8 +1334,8 @@
   </sheetPr>
   <dimension ref="A3:O19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -1843,11 +1833,43 @@
       </c>
     </row>
     <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="4">
+        <v>4</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>44200</v>
+      </c>
       <c r="K15" s="1">
-        <f>SUM(K4:K14)</f>
-        <v>333660</v>
-      </c>
-      <c r="L15"/>
+        <f t="shared" ref="K15" si="2">I15*J15</f>
+        <v>44200</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="K16"/>
@@ -1867,7 +1889,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A3:O14" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:K10">
+  <sortState ref="B4:K10">
     <sortCondition ref="B4:B10"/>
     <sortCondition ref="D4:D10"/>
     <sortCondition ref="E4:E10"/>
@@ -1883,13 +1905,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -1915,13 +1937,13 @@
         <v>17</v>
       </c>
       <c r="B4" s="10">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C4" s="1">
-        <v>137050</v>
+        <v>179550</v>
       </c>
       <c r="D4" s="1">
-        <v>304400</v>
+        <v>346900</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2037,82 +2059,113 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="10">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>42500</v>
+      </c>
+      <c r="D13" s="1">
+        <v>42500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B14" s="10">
         <v>48</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C14" s="1">
         <v>13060</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D14" s="1">
         <v>29260</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="10">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
-        <v>5200</v>
-      </c>
-      <c r="D14" s="1">
-        <v>5200</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="10">
         <v>1</v>
       </c>
       <c r="C15" s="1">
-        <v>7500</v>
+        <v>5200</v>
       </c>
       <c r="D15" s="1">
-        <v>7500</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="10">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>7500</v>
+      </c>
+      <c r="D16" s="1">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B17" s="10">
         <v>46</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C17" s="1">
         <v>360</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D17" s="1">
         <v>16560</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="10">
-        <v>126</v>
-      </c>
-      <c r="C17" s="1">
-        <v>150110</v>
-      </c>
-      <c r="D17" s="1">
-        <v>333660</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="C18"/>
-      <c r="D18"/>
+      <c r="B18" s="10">
+        <v>127</v>
+      </c>
+      <c r="C18" s="1">
+        <v>192610</v>
+      </c>
+      <c r="D18" s="1">
+        <v>376160</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
       <c r="C19"/>
       <c r="D19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFC854C-9FB9-4FD6-9392-3DFF5500CAC0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <f>4950*9</f>
+        <v>44550</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Equipamiento y Moviliario/Relacion Equipamiento y Mobiloiario SANTA ROSA - 2022 AMP 08.xlsx
+++ b/Equipamiento y Moviliario/Relacion Equipamiento y Mobiloiario SANTA ROSA - 2022 AMP 08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\Instalaciones_Especiales\Equipamiento y Moviliario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA90A7A2-DDFC-4163-953A-3F1251B2002F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0D8F97-D862-4267-BEAE-C0EF098C4EB5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="605" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relacion de EM" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="50">
   <si>
     <t>Area</t>
   </si>
@@ -169,6 +169,15 @@
   </si>
   <si>
     <t>SISTEMA DE AIRE ACONDICIONADO DE PRECISION</t>
+  </si>
+  <si>
+    <t>EQUIPAMIENTO PARA LOZA DEPORTIVA</t>
+  </si>
+  <si>
+    <t>SISTEMA SISTEMA DSP PARA LOZA DEPORTIVA</t>
+  </si>
+  <si>
+    <t>SISTEMA DSP PARA LOZA DEPORTIVA</t>
   </si>
 </sst>
 </file>
@@ -244,7 +253,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
@@ -552,7 +567,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="MEL" refreshedDate="44980.430479166665" createdVersion="8" refreshedVersion="6" minRefreshableVersion="3" recordCount="17" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="MEL" refreshedDate="44994.68579502315" createdVersion="8" refreshedVersion="6" minRefreshableVersion="3" recordCount="17" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A3:O44" sheet="Relacion de EM"/>
   </cacheSource>
@@ -580,7 +595,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
     </cacheField>
     <cacheField name="DESCRIPCION" numFmtId="0">
-      <sharedItems containsBlank="1" count="13">
+      <sharedItems containsBlank="1" count="14">
         <s v="EQUIPAMIENTO PARA AMBIENTES MULTIUSO"/>
         <s v="EQUIPAMIENTO PARA SOPORTE DE IMAGEN"/>
         <s v="COCINA INDUSTRIAL DE ACERO INOX"/>
@@ -593,6 +608,7 @@
         <s v="MULTÍMETRO DIGITAL CON PUERTO USB"/>
         <s v="SISTEMA DE SWITCH DE AUDIO Y VIDEO"/>
         <s v="SISTEMA DE AIRE ACONDICIONADO DE PRECISION"/>
+        <s v="SISTEMA SISTEMA DSP PARA LOZA DEPORTIVA"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -603,7 +619,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="46"/>
     </cacheField>
     <cacheField name="PRECIO" numFmtId="4">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="360" maxValue="42500"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="360" maxValue="89500"/>
     </cacheField>
     <cacheField name="TOTAL" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="5000" maxValue="135000"/>
@@ -828,26 +844,26 @@
     <x v="11"/>
     <s v="Und"/>
     <n v="1"/>
-    <n v="42500"/>
-    <n v="42500"/>
+    <n v="44200"/>
+    <n v="44200"/>
     <s v="EETT"/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="Laboratorio"/>
+    <s v="Uso General"/>
+    <x v="0"/>
+    <s v="CUADRO N°05"/>
+    <s v="EQUIPAMIENTO PARA LOZA DEPORTIVA"/>
+    <n v="4"/>
     <x v="12"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="Und"/>
+    <n v="1"/>
+    <n v="89500"/>
+    <n v="89500"/>
+    <s v="EETT"/>
     <m/>
     <m/>
     <m/>
@@ -859,7 +875,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="12"/>
+    <x v="13"/>
     <m/>
     <m/>
     <m/>
@@ -876,7 +892,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="12"/>
+    <x v="13"/>
     <m/>
     <m/>
     <m/>
@@ -893,7 +909,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="12"/>
+    <x v="13"/>
     <m/>
     <m/>
     <m/>
@@ -910,7 +926,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="12"/>
+    <x v="13"/>
     <m/>
     <m/>
     <m/>
@@ -925,7 +941,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="TablaDinámica6" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:D18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A3:D19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -941,7 +957,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="14">
+      <items count="15">
         <item x="2"/>
         <item x="0"/>
         <item x="1"/>
@@ -953,8 +969,9 @@
         <item x="6"/>
         <item x="10"/>
         <item x="3"/>
-        <item x="12"/>
+        <item x="13"/>
         <item x="11"/>
+        <item n="SISTEMA DSP PARA LOZA DEPORTIVA" x="12"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -971,7 +988,7 @@
     <field x="2"/>
     <field x="6"/>
   </rowFields>
-  <rowItems count="15">
+  <rowItems count="16">
     <i>
       <x/>
     </i>
@@ -1001,6 +1018,9 @@
     </i>
     <i r="1">
       <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
     </i>
     <i>
       <x v="1"/>
@@ -1038,7 +1058,7 @@
     <dataField name="Suma de TOTAL" fld="10" baseField="0" baseItem="0" numFmtId="4"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="3">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
@@ -1048,7 +1068,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -1334,8 +1354,8 @@
   </sheetPr>
   <dimension ref="A3:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -1872,8 +1892,43 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="K16"/>
-      <c r="L16"/>
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="4">
+        <v>4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>89500</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" ref="K16" si="3">I16*J16</f>
+        <v>89500</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="17" spans="11:12">
       <c r="K17"/>
@@ -1905,8 +1960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -1937,13 +1992,13 @@
         <v>17</v>
       </c>
       <c r="B4" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C4" s="1">
-        <v>179550</v>
+        <v>270750</v>
       </c>
       <c r="D4" s="1">
-        <v>346900</v>
+        <v>438100</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2066,88 +2121,99 @@
         <v>1</v>
       </c>
       <c r="C13" s="1">
-        <v>42500</v>
+        <v>44200</v>
       </c>
       <c r="D13" s="1">
-        <v>42500</v>
+        <v>44200</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="10">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>89500</v>
+      </c>
+      <c r="D14" s="1">
+        <v>89500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B15" s="10">
         <v>48</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C15" s="1">
         <v>13060</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D15" s="1">
         <v>29260</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="10">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1">
-        <v>5200</v>
-      </c>
-      <c r="D15" s="1">
-        <v>5200</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="10">
         <v>1</v>
       </c>
       <c r="C16" s="1">
-        <v>7500</v>
+        <v>5200</v>
       </c>
       <c r="D16" s="1">
-        <v>7500</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="10">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>7500</v>
+      </c>
+      <c r="D17" s="1">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B18" s="10">
         <v>46</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C18" s="1">
         <v>360</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D18" s="1">
         <v>16560</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="10">
-        <v>127</v>
-      </c>
-      <c r="C18" s="1">
-        <v>192610</v>
-      </c>
-      <c r="D18" s="1">
-        <v>376160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="C19"/>
-      <c r="D19"/>
+      <c r="B19" s="10">
+        <v>128</v>
+      </c>
+      <c r="C19" s="1">
+        <v>283810</v>
+      </c>
+      <c r="D19" s="1">
+        <v>467360</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Equipamiento y Moviliario/Relacion Equipamiento y Mobiloiario SANTA ROSA - 2022 AMP 08.xlsx
+++ b/Equipamiento y Moviliario/Relacion Equipamiento y Mobiloiario SANTA ROSA - 2022 AMP 08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\Instalaciones_Especiales\Equipamiento y Moviliario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909CB68C-1C70-41EC-B275-8C759D549FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97A76E5-D54D-46A4-B3E4-0290C374DB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="605" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relacion de EM" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="48">
   <si>
     <t>Area</t>
   </si>
@@ -239,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -260,11 +260,18 @@
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
@@ -938,7 +945,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="TablaDinámica6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:D17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A3:D8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -955,18 +962,18 @@
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="13">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
         <item x="4"/>
         <item x="5"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="9"/>
+        <item h="1" x="8"/>
+        <item h="1" x="7"/>
+        <item h="1" x="9"/>
         <item x="6"/>
-        <item x="10"/>
-        <item x="3"/>
-        <item x="11"/>
+        <item h="1" x="10"/>
+        <item h="1" x="3"/>
+        <item h="1" x="11"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -983,34 +990,7 @@
     <field x="2"/>
     <field x="6"/>
   </rowFields>
-  <rowItems count="14">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
+  <rowItems count="5">
     <i>
       <x v="1"/>
     </i>
@@ -1047,7 +1027,7 @@
     <dataField name="Suma de TOTAL" fld="10" baseField="0" baseItem="0" numFmtId="4"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="1">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
@@ -1057,7 +1037,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -1343,7 +1323,7 @@
   </sheetPr>
   <dimension ref="A3:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -1915,13 +1895,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -1944,209 +1924,120 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4">
-        <v>78</v>
+        <v>27</v>
+      </c>
+      <c r="B4" s="10">
+        <v>48</v>
       </c>
       <c r="C4" s="1">
-        <v>137050</v>
+        <v>13060</v>
       </c>
       <c r="D4" s="1">
-        <v>304400</v>
+        <v>29260</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>4500</v>
+        <v>5200</v>
       </c>
       <c r="D5" s="1">
-        <v>9000</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="B6" s="10">
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>41500</v>
+        <v>7500</v>
       </c>
       <c r="D6" s="1">
-        <v>41500</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="B7" s="10">
+        <v>46</v>
       </c>
       <c r="C7" s="1">
-        <v>38000</v>
+        <v>360</v>
       </c>
       <c r="D7" s="1">
-        <v>38000</v>
+        <v>16560</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8">
-        <v>30</v>
+      <c r="A8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="10">
+        <v>48</v>
       </c>
       <c r="C8" s="1">
-        <v>4500</v>
+        <v>13060</v>
       </c>
       <c r="D8" s="1">
-        <v>135000</v>
+        <v>29260</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9">
-        <v>30</v>
-      </c>
-      <c r="C9" s="1">
-        <v>850</v>
-      </c>
-      <c r="D9" s="1">
-        <v>25500</v>
-      </c>
+      <c r="C9"/>
+      <c r="D9"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1">
-        <v>700</v>
-      </c>
-      <c r="D10" s="1">
-        <v>8400</v>
-      </c>
+      <c r="C10"/>
+      <c r="D10"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
-        <v>42000</v>
-      </c>
-      <c r="D11" s="1">
-        <v>42000</v>
-      </c>
+      <c r="C11"/>
+      <c r="D11"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1">
-        <v>5000</v>
-      </c>
-      <c r="D12" s="1">
-        <v>5000</v>
-      </c>
+      <c r="C12"/>
+      <c r="D12"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13">
-        <v>48</v>
-      </c>
-      <c r="C13" s="1">
-        <v>13060</v>
-      </c>
-      <c r="D13" s="1">
-        <v>29260</v>
-      </c>
+      <c r="C13"/>
+      <c r="D13"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
-        <v>5200</v>
-      </c>
-      <c r="D14" s="1">
-        <v>5200</v>
-      </c>
+      <c r="C14"/>
+      <c r="D14"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1">
-        <v>7500</v>
-      </c>
-      <c r="D15" s="1">
-        <v>7500</v>
-      </c>
+      <c r="C15"/>
+      <c r="D15"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16">
-        <v>46</v>
-      </c>
-      <c r="C16" s="1">
-        <v>360</v>
-      </c>
-      <c r="D16" s="1">
-        <v>16560</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17">
-        <v>126</v>
-      </c>
-      <c r="C17" s="1">
-        <v>150110</v>
-      </c>
-      <c r="D17" s="1">
-        <v>333660</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="C16"/>
+      <c r="D16"/>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17"/>
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="3:4">
       <c r="C18"/>
       <c r="D18"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="3:4">
       <c r="C19"/>
       <c r="D19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Equipamiento y Moviliario/Relacion Equipamiento y Mobiloiario SANTA ROSA - 2022 AMP 08.xlsx
+++ b/Equipamiento y Moviliario/Relacion Equipamiento y Mobiloiario SANTA ROSA - 2022 AMP 08.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\Instalaciones_Especiales\Equipamiento y Moviliario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Instalaciones_Especiales\Equipamiento y Moviliario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0D8F97-D862-4267-BEAE-C0EF098C4EB5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE0DA46-E52D-4922-A6DE-16E0F9FB5F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="605" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="605" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relacion de EM" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Relacion de EM'!$A$3:$O$14</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="4" r:id="rId4"/>
   </pivotCaches>
@@ -253,13 +253,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
@@ -567,7 +561,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="MEL" refreshedDate="44994.68579502315" createdVersion="8" refreshedVersion="6" minRefreshableVersion="3" recordCount="17" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="NAHIM" refreshedDate="45021.415184259262" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="17" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A3:O44" sheet="Relacion de EM"/>
   </cacheSource>
@@ -940,7 +934,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="TablaDinámica6" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="TablaDinámica6" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
@@ -1058,7 +1052,7 @@
     <dataField name="Suma de TOTAL" fld="10" baseField="0" baseItem="0" numFmtId="4"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="5">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
@@ -1068,7 +1062,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -1944,7 +1938,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A3:O14" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState ref="B4:K10">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:K10">
     <sortCondition ref="B4:B10"/>
     <sortCondition ref="D4:D10"/>
     <sortCondition ref="E4:E10"/>
@@ -1961,7 +1955,7 @@
   <dimension ref="A3:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
